--- a/linux-kernel/sync.xlsx
+++ b/linux-kernel/sync.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nb/Downloads/backup/linux-kernel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="800" windowWidth="34260" windowHeight="14680"/>
+    <workbookView xWindow="720" yWindow="795" windowWidth="19440" windowHeight="14685"/>
   </bookViews>
   <sheets>
     <sheet name="sync" sheetId="7" r:id="rId1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>代码并发安全</t>
     <rPh sb="0" eb="1">
@@ -717,18 +712,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>自旋锁</t>
+    <t>自旋锁 spinlock</t>
     <rPh sb="0" eb="1">
       <t>zi xuan suo</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在任意时间都能防止另外执行线程进入临界区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自旋锁不可递归</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1134,120 +1137,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8">
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8">
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8">
       <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8">
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8">
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8">
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8">
       <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8">
       <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8">
       <c r="H16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:9">
       <c r="H17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:9">
       <c r="I18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:9">
       <c r="H19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:9">
       <c r="H20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:9">
       <c r="H21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:9">
       <c r="E22" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:9">
       <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:9">
       <c r="D25" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9">
+      <c r="E26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9">
+      <c r="E27" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/linux-kernel/sync.xlsx
+++ b/linux-kernel/sync.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>代码并发安全</t>
     <rPh sb="0" eb="1">
@@ -205,16 +205,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>同步方法</t>
-    <rPh sb="0" eb="1">
-      <t>tong bu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fang fa</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>原子操作</t>
     <rPh sb="0" eb="1">
       <t>yuan zi</t>
@@ -724,6 +714,168 @@
   </si>
   <si>
     <t>自旋锁不可递归</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自旋锁的实现与体系结构相关，一般汇编代码实现，因为涉及到原子操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用方法：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFINE_SPINLOCK(mr_logck)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spin_lock(&amp;mr_lock)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spin_unlock(&amp;mr_lock)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在中断处理程序中，一定要先禁止本地中断，再获取锁，否则可能被另外中断打断，重新请求锁而发生死锁。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned long flags;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spin_lock_irqsave(&amp;mr_lock,flags)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spin_unlock_irqstore(&amp;mr_lock,flags)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似的：下半部可以强占进程上下文，两部分共享数据时，在加锁同时需要禁止下半部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断处理程序可以强占下半部，所以两部分共享数据时，加锁同时需要禁止本地中断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同类tasklet共享数据不需要加锁，因为不可能同时执行，是tasklet自身保证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同类型tasklet共享数据，需要加锁，但不需要禁止下半部，因为同一个CPU不能发生tasklet强占，不同cpu并发时等待锁释放即可，不会发生死锁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软中断之间共享数据必须加锁，因为可能不同CPU同时执行，但不需要禁止下半部，因为同一个CPU软中断不可能被软中断强占</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读写自旋锁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步方法： 轮询方法 &amp; 等待睡眠方法</t>
+    <rPh sb="0" eb="1">
+      <t>tong bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang fa</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二值信号量（互斥信号量）count=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数信号量 count&gt;1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读写信号量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比自旋锁多一种降级操作downgrade_write，把写锁降级为读锁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互斥体mutext 指睡眠性质的强制互斥锁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为与互斥信号量类似，但更加简洁和高效，使用限制更强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成变量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait_for_completion(complete)等待</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>complete(complete)唤醒等待的任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLK大内核锁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序锁 seq锁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部维护一个序列计数器，读之前和读之后都要进行判断，如果没有变说明中间么有被写入过，否则读取无效重新读取。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>write_seqlock(lock)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>write_sequnlock(lock)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned long seq;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>do{</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>}while(read_seqretry(lock,seq)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq = read_seqbegin(lock)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写线程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读线程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此锁，更优先写者，适合写操作少的情况</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +883,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,6 +912,14 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -792,7 +952,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,6 +960,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1138,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I27"/>
+  <dimension ref="B2:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="M87" sqref="M87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.25"/>
@@ -1186,77 +1349,289 @@
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="E14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="E15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:8">
       <c r="H16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="4:9">
       <c r="H17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="4:9">
       <c r="I18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="4:9">
       <c r="H19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="4:9">
       <c r="H20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="4:9">
       <c r="H21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="4:9">
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="4:9">
       <c r="E23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="4:9">
       <c r="D25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="4:9">
+      <c r="D26" s="2"/>
       <c r="E26" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="4:9">
       <c r="E27" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9">
+      <c r="E28" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9">
+      <c r="E29" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9">
+      <c r="F30" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9">
+      <c r="F31" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9">
+      <c r="G32" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="F33" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7">
+      <c r="E34" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7">
+      <c r="F35" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7">
+      <c r="F36" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7">
+      <c r="F37" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7">
+      <c r="G38" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7">
+      <c r="F39" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7">
+      <c r="E40" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7">
+      <c r="G41" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7">
+      <c r="F43" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7">
+      <c r="F44" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7">
+      <c r="F46" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7">
+      <c r="D48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="50" spans="4:5">
+      <c r="D50" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5">
+      <c r="E51" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="E52" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5">
+      <c r="D54" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="E55" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5">
+      <c r="D57" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5">
+      <c r="E58" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5">
+      <c r="D60" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5">
+      <c r="E61" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5">
+      <c r="E62" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5">
+      <c r="D64" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7">
+      <c r="D66" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7">
+      <c r="E67" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7">
+      <c r="E68" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7">
+      <c r="E69" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7">
+      <c r="F70" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7">
+      <c r="E71" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7">
+      <c r="E73" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7">
+      <c r="E74" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7">
+      <c r="E75" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7">
+      <c r="F76" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7">
+      <c r="G77" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7">
+      <c r="E78" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="4:7">
+      <c r="E80" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/linux-kernel/sync.xlsx
+++ b/linux-kernel/sync.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>代码并发安全</t>
     <rPh sb="0" eb="1">
@@ -876,6 +876,46 @@
   </si>
   <si>
     <t>此锁，更优先写者，适合写操作少的情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止内核强占</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同CPU执行task访问共享数据必须用锁保护，这种是真并发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个CPU上的任务内核强占是伪并发，taskA访问变量x时，被taskB强占再访问x，这种情况如果禁止内核强占就行了，不必要加锁。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以，如果访问的是每个CPU独有数据，那么禁止内核强占即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>preempt_disable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用一次计数+1，可以循环多次调用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用一次计数-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直到为0时，内核才开启抢占</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序和屏障（barriers）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1301,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I80"/>
+  <dimension ref="B2:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="M87" sqref="M87"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.25"/>
@@ -1634,6 +1674,57 @@
         <v>59</v>
       </c>
     </row>
+    <row r="82" spans="4:10">
+      <c r="D82" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="4:10">
+      <c r="E84" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="4:10">
+      <c r="E85" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="4:10">
+      <c r="E86" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="4:10">
+      <c r="E88" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="4:10">
+      <c r="F89" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="4:10">
+      <c r="E90" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="4:10">
+      <c r="J91" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="4:10">
+      <c r="D94" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/linux-kernel/sync.xlsx
+++ b/linux-kernel/sync.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nb/Downloads/backup/linux-kernel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="795" windowWidth="19440" windowHeight="14685"/>
+    <workbookView xWindow="720" yWindow="800" windowWidth="19440" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="sync" sheetId="7" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
   <si>
     <t>代码并发安全</t>
     <rPh sb="0" eb="1">
@@ -916,14 +921,207 @@
   </si>
   <si>
     <t>顺序和屏障（barriers）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例子 a=1 b=2为初始值</t>
+    <rPh sb="0" eb="1">
+      <t>li zi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chu shi zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程1</t>
+    <rPh sb="0" eb="1">
+      <t>xian cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b=4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程2</t>
+    <rPh sb="0" eb="1">
+      <t>xian cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c=b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d=a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rmb()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存屏障 memory barrier</t>
+    <rPh sb="0" eb="1">
+      <t>nei cun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping zhang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有内存屏障，那么d有可能出现c=4 d=1的结果情况，因为cpu指令派发对没有依赖关系的语句可能重排序</t>
+    <rPh sb="0" eb="1">
+      <t>ru guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nei cun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ping zhang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>na me</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you ke neng</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>chu xian</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>de</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>jie guo</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>qing kuang</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>yin wei</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zhi ling</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>pai fa</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>mei you</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>yi lai</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>guan xi</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>de</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>yu ju</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ke neng</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>chong</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>pai xu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译器屏障 barrier</t>
+    <rPh sb="0" eb="1">
+      <t>bian yi qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ping zhang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防止编译器对载入和存储过程进行优化，编译器屏障比内存屏障轻量级</t>
+    <rPh sb="0" eb="1">
+      <t>fang zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian yi qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zai ru</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>he</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>cun chu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>guo cheng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jin xing</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>you hua</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>bian yi qi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ping zhang</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>nei cun</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ping zhang</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>qing liang ji</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1340,361 +1538,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:J94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="AN107" sqref="AN107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="4:9">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
       <c r="H17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="4:9">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
       <c r="I18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="4:9">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
       <c r="H19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="4:9">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
       <c r="H20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
       <c r="H21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="4:9">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E22" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="4:9">
+    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="4:9">
+    <row r="25" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D25" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="4:9">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D26" s="2"/>
       <c r="E26" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="4:9">
+    <row r="27" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E27" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="4:9">
+    <row r="28" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E28" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="4:9">
+    <row r="29" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E29" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="4:9">
+    <row r="30" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F30" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="4:9">
+    <row r="31" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F31" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="4:9">
+    <row r="32" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G32" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="4:7">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F33" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="4:7">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E34" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="4:7">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F35" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="4:7">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F36" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="4:7">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F37" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="4:7">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G38" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="4:7">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F39" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="4:7">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E40" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="4:7">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G41" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="4:7">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F43" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="4:7">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F44" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="4:7">
+    <row r="46" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F46" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="4:7">
+    <row r="48" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D48" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="50" spans="4:5">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D50" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="4:5">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E51" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="4:5">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E52" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="4:5">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D54" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="4:5">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E55" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="4:5">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D57" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="4:5">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E58" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="4:5">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D60" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="4:5">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E61" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="4:5">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E62" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="4:5">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D64" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="4:7">
+    <row r="66" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D66" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="4:7">
+    <row r="67" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E67" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="4:7">
+    <row r="68" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E68" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="4:7">
+    <row r="69" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E69" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="4:7">
+    <row r="70" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F70" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="4:7">
+    <row r="71" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E71" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="4:7">
+    <row r="73" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E73" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="4:7">
+    <row r="74" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E74" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="4:7">
+    <row r="75" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E75" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="4:7">
+    <row r="76" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F76" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="4:7">
+    <row r="77" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G77" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="4:7">
+    <row r="78" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E78" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="4:7">
+    <row r="80" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E80" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="4:10">
+    <row r="82" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D82" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="4:10">
+    <row r="84" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E84" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="4:10">
+    <row r="85" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E85" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="4:10">
+    <row r="86" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E86" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="4:10">
+    <row r="88" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E88" s="1" t="s">
         <v>64</v>
       </c>
@@ -1702,12 +1900,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="4:10">
+    <row r="89" spans="4:10" x14ac:dyDescent="0.2">
       <c r="F89" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="4:10">
+    <row r="90" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E90" s="1" t="s">
         <v>64</v>
       </c>
@@ -1715,14 +1913,71 @@
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="4:10">
+    <row r="91" spans="4:10" x14ac:dyDescent="0.2">
       <c r="J91" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="4:10">
+    <row r="94" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D94" s="3" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="96" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E96" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="F97" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="G98" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="G99" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="G100" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="G101" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="G102" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E104" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="G105" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
